--- a/com.immidart.skypassTravel/src/main/resources/SkyPassTestData.xlsx
+++ b/com.immidart.skypassTravel/src/main/resources/SkyPassTestData.xlsx
@@ -218,10 +218,10 @@
     <t>10/15/2016</t>
   </si>
   <si>
-    <t>Im2004</t>
-  </si>
-  <si>
-    <t>Req2004</t>
+    <t>Req2005</t>
+  </si>
+  <si>
+    <t>Im2005</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,10 +753,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>62</v>
@@ -793,7 +793,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,10 +868,10 @@
         <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -921,7 +921,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>20</v>

--- a/com.immidart.skypassTravel/src/main/resources/SkyPassTestData.xlsx
+++ b/com.immidart.skypassTravel/src/main/resources/SkyPassTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" tabRatio="883" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,10 @@
     <t>10/15/2016</t>
   </si>
   <si>
-    <t>Req2005</t>
-  </si>
-  <si>
-    <t>Im2005</t>
+    <t>Req2009</t>
+  </si>
+  <si>
+    <t>Im2009</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
